--- a/webapp/public/TemplateCaricamentoManuale.xlsx
+++ b/webapp/public/TemplateCaricamentoManuale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{396C82B8-C328-4E83-BDB9-767D0A60705B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0170970C-C855-41ED-8814-78EFB5CAB3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="864" yWindow="648" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMMA" sheetId="1" r:id="rId1"/>
@@ -27,177 +27,72 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>Numero progressivo (BGM+241)
-E1EDK09-LABNK
-E1EDP10-LABNK</t>
+    <t xml:space="preserve">Numero progressivo </t>
   </si>
   <si>
-    <t>Data progressivo (DTM+137)
-E1EDK09-BSTDK
-E1EDK09-ABNRD
-E1EDP10-ABNRD</t>
+    <t xml:space="preserve">Data progressivo </t>
   </si>
   <si>
-    <t>Codice seller (NAD+SE)
-E1EDKA1-PARVW= LF
-E1EDKA1-PARTN</t>
+    <t xml:space="preserve">Codice articolo del cliente </t>
   </si>
   <si>
-    <t>Stab.destin. (NAD+ST)
-E1EDKA1-PARVW=SH
-E1EDKA1-ABLAD</t>
+    <t xml:space="preserve">Descrizione materiale </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Contatto fornitore (CTA)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Fuori Ambito Idoc</t>
-    </r>
+    <t xml:space="preserve">Punto di scarico </t>
   </si>
   <si>
-    <t>Codice articolo del cliente (LIN+11)
-E1EDP10-IDNKD</t>
+    <t xml:space="preserve">Numero Ordine </t>
   </si>
   <si>
-    <t xml:space="preserve">Descrizione materiale 
-(IMD+++03)
-E1EDP10-IDNLF
-</t>
+    <t xml:space="preserve">Ultima bolla Num. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Punto di scarico (LOC+11)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>E1EDKA1-IHREZ (DI QUALE PARTNER ?)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-E1EDP10-DFABL</t>
-    </r>
+    <t xml:space="preserve">Ultima bolla </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Numero Ordine (RFF+ON)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>E1EDK09-VTRNR</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">
-E1EDP10-VTRNR</t>
-    </r>
+    <t xml:space="preserve">Ultima bolla Q.ta </t>
   </si>
   <si>
-    <t>Unita (MEA)
-E1EDK36-VRKME
-E1EDK36-LIFKE</t>
+    <t xml:space="preserve">Data inizio calc. quantità cumulata </t>
   </si>
   <si>
-    <t xml:space="preserve">Ultima bolla Num. (QTY+12+qty)
-E1EDP10-BELNR
-E1EDP36-BELNR
-</t>
-  </si>
-  <si>
-    <t>Ultima bolla  (DTM+171:yyymmdd)
-E1EDP10-LIDTL
-E1EDP36-BELDAT
-E1EDP36-LIDTL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ultima bolla Q.ta (QTY+12+qty)
-E1EDP10-VEMNG
-E1EDP36-LFIMG 
-E1EDP36-VEMNG  </t>
-  </si>
-  <si>
-    <t>Data inizio calc. quantità cumulata (DTM+51:yyyymmdd)
-E1EDK09-CYDAT</t>
-  </si>
-  <si>
-    <t>Quantità cumulativa ricevuta (QTY+70+qty)
-E1EDP10-AKUEM</t>
+    <t xml:space="preserve">Quantità cumulativa ricevuta </t>
   </si>
   <si>
     <t>A=Acqu.
-L=Conto lav.
-???</t>
+L=Conto lav.</t>
   </si>
   <si>
-    <t>1=Conf./4=Previs. (SCC+rif)
-E1EDP16-ETTYP</t>
+    <t xml:space="preserve">1=Conf./4=Previs. </t>
   </si>
   <si>
-    <t>Quantità (QTY+113)
-E1EDP16-WMENG</t>
+    <t xml:space="preserve">Quantità </t>
   </si>
   <si>
-    <t>Data Consegna (DTM+2)
-E1EDP16-EDATUV</t>
+    <t xml:space="preserve">Data Consegna </t>
   </si>
   <si>
-    <t>Testo riga (FTX+LIN+testo)
-???</t>
+    <t xml:space="preserve">Codice seller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stab.destin. </t>
+  </si>
+  <si>
+    <t>Contatto fornitore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unita </t>
+  </si>
+  <si>
+    <t>Testo riga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -219,12 +114,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -498,9 +387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -535,55 +424,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="R1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
